--- a/output/0/tRNA-Met-CAT-1-1.xlsx
+++ b/output/0/tRNA-Met-CAT-1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>chr8</t>
   </si>
@@ -87,57 +87,6 @@
   </si>
   <si>
     <t>67</t>
-  </si>
-  <si>
-    <t>124169523</t>
-  </si>
-  <si>
-    <t>124169546</t>
-  </si>
-  <si>
-    <t>124169526</t>
-  </si>
-  <si>
-    <t>AGGTGCCTCGTTAGCGCAGT</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>87% (66)</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>124169857</t>
-  </si>
-  <si>
-    <t>124169880</t>
-  </si>
-  <si>
-    <t>124169860</t>
-  </si>
-  <si>
-    <t>GCAGCACCCAGCACAGGGCC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>69</t>
   </si>
 </sst>
 </file>
@@ -182,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -306,124 +255,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
